--- a/List of components.xlsx
+++ b/List of components.xlsx
@@ -71,12 +71,6 @@
     <t>https://qps.ru/t0CZ7</t>
   </si>
   <si>
-    <t>Пассивный пьезодинамик</t>
-  </si>
-  <si>
-    <t>https://qps.ru/Pv1Mi</t>
-  </si>
-  <si>
     <t>https://qps.ru/I80Ta</t>
   </si>
   <si>
@@ -131,9 +125,6 @@
     <t>https://qps.ru/yzamD</t>
   </si>
   <si>
-    <t>Соединительный провод</t>
-  </si>
-  <si>
     <t>https://qps.ru/C6cYx</t>
   </si>
   <si>
@@ -234,6 +225,15 @@
   </si>
   <si>
     <t>Стоимость с доп. компонентами:</t>
+  </si>
+  <si>
+    <t>Соединительный шлейф</t>
+  </si>
+  <si>
+    <t>Активный пьезодинамик</t>
+  </si>
+  <si>
+    <t>https://clck.ru/M3J5g</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,7 +805,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>11</v>
@@ -829,10 +829,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D5" s="3">
         <v>3</v>
@@ -853,7 +853,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
@@ -880,7 +880,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D7" s="3">
         <v>5</v>
@@ -901,7 +901,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>14</v>
@@ -925,10 +925,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="D9" s="3">
         <v>15</v>
@@ -949,10 +949,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" s="3">
         <v>15</v>
@@ -973,10 +973,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3">
         <v>2</v>
@@ -997,10 +997,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
@@ -1021,10 +1021,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3">
         <v>5</v>
@@ -1045,10 +1045,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3">
         <v>11</v>
@@ -1069,10 +1069,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="3">
         <v>14</v>
@@ -1093,10 +1093,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="3">
         <v>13</v>
@@ -1117,10 +1117,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" s="7">
         <v>380</v>
@@ -1141,10 +1141,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" s="3">
         <v>29</v>
@@ -1165,10 +1165,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D19" s="3">
         <v>35</v>
@@ -1189,10 +1189,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D20" s="3">
         <v>20</v>
@@ -1213,10 +1213,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D21" s="3">
         <v>115</v>
@@ -1237,10 +1237,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D22" s="3">
         <v>32</v>
@@ -1261,10 +1261,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D23" s="3">
         <v>20</v>
@@ -1285,10 +1285,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D24" s="11">
         <v>630</v>
@@ -1309,10 +1309,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D25" s="7">
         <v>550</v>
@@ -1333,10 +1333,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D26" s="5">
         <v>43</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D27" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="6">
@@ -1364,7 +1364,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1372,10 +1372,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D29" s="3">
         <v>225</v>
@@ -1396,10 +1396,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D30" s="5">
         <v>283</v>
@@ -1420,7 +1420,7 @@
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="6">
@@ -1431,7 +1431,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F32" s="13"/>
     </row>
@@ -1440,10 +1440,10 @@
         <v>27</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D33" s="3">
         <v>48</v>
@@ -1464,10 +1464,10 @@
         <v>28</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D34" s="5">
         <v>115</v>
@@ -1488,7 +1488,7 @@
       <c r="B35" s="10"/>
       <c r="C35" s="1"/>
       <c r="D35" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="6">
@@ -1501,7 +1501,7 @@
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D36" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="6">
@@ -1522,31 +1522,30 @@
     <hyperlink ref="C4" r:id="rId2"/>
     <hyperlink ref="C6" r:id="rId3"/>
     <hyperlink ref="C7" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C11" r:id="rId6"/>
-    <hyperlink ref="C12" r:id="rId7"/>
-    <hyperlink ref="C13" r:id="rId8"/>
-    <hyperlink ref="C14" r:id="rId9"/>
-    <hyperlink ref="C15" r:id="rId10"/>
-    <hyperlink ref="C16" r:id="rId11"/>
-    <hyperlink ref="C22" r:id="rId12"/>
-    <hyperlink ref="C23" r:id="rId13"/>
-    <hyperlink ref="C24" r:id="rId14"/>
-    <hyperlink ref="C25" r:id="rId15"/>
-    <hyperlink ref="C26" r:id="rId16"/>
-    <hyperlink ref="C21" r:id="rId17"/>
-    <hyperlink ref="C30" r:id="rId18"/>
-    <hyperlink ref="C29" r:id="rId19"/>
-    <hyperlink ref="C19" r:id="rId20"/>
-    <hyperlink ref="C20" r:id="rId21"/>
-    <hyperlink ref="C18" r:id="rId22"/>
-    <hyperlink ref="C10" r:id="rId23"/>
-    <hyperlink ref="C8" r:id="rId24"/>
-    <hyperlink ref="C33" r:id="rId25"/>
-    <hyperlink ref="C34" r:id="rId26"/>
-    <hyperlink ref="C17" r:id="rId27"/>
+    <hyperlink ref="C11" r:id="rId5"/>
+    <hyperlink ref="C12" r:id="rId6"/>
+    <hyperlink ref="C13" r:id="rId7"/>
+    <hyperlink ref="C14" r:id="rId8"/>
+    <hyperlink ref="C15" r:id="rId9"/>
+    <hyperlink ref="C16" r:id="rId10"/>
+    <hyperlink ref="C22" r:id="rId11"/>
+    <hyperlink ref="C23" r:id="rId12"/>
+    <hyperlink ref="C24" r:id="rId13"/>
+    <hyperlink ref="C25" r:id="rId14"/>
+    <hyperlink ref="C26" r:id="rId15"/>
+    <hyperlink ref="C21" r:id="rId16"/>
+    <hyperlink ref="C30" r:id="rId17"/>
+    <hyperlink ref="C29" r:id="rId18"/>
+    <hyperlink ref="C19" r:id="rId19"/>
+    <hyperlink ref="C20" r:id="rId20"/>
+    <hyperlink ref="C18" r:id="rId21"/>
+    <hyperlink ref="C10" r:id="rId22"/>
+    <hyperlink ref="C8" r:id="rId23"/>
+    <hyperlink ref="C33" r:id="rId24"/>
+    <hyperlink ref="C34" r:id="rId25"/>
+    <hyperlink ref="C17" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId27"/>
 </worksheet>
 </file>